--- a/5/2/6/1/Moneda nacional  2001 a 2021 - Trimestral.xlsx
+++ b/5/2/6/1/Moneda nacional  2001 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2413,6 +2416,26 @@
         <v>170177</v>
       </c>
     </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>89037</v>
+      </c>
+      <c r="C83">
+        <v>22327</v>
+      </c>
+      <c r="D83">
+        <v>61108</v>
+      </c>
+      <c r="G83">
+        <v>110</v>
+      </c>
+      <c r="H83">
+        <v>172582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/6/1/Moneda nacional  2001 a 2021 - Trimestral.xlsx
+++ b/5/2/6/1/Moneda nacional  2001 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2436,6 +2439,26 @@
         <v>172582</v>
       </c>
     </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>91077</v>
+      </c>
+      <c r="C84">
+        <v>22872</v>
+      </c>
+      <c r="D84">
+        <v>62914</v>
+      </c>
+      <c r="G84">
+        <v>21</v>
+      </c>
+      <c r="H84">
+        <v>176884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
